--- a/docs/Mapping_casi_uso/morte/Morte_001.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_001.xlsx
@@ -483,7 +483,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -491,23 +491,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -515,10 +516,10 @@
   <cols>
     <col min="1" max="1" width="15.78125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="35.7109375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3784,273 +3785,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09AFF149-E2A4-40F7-8B69-4A6D91B5D712}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAA9350F-2080-4C19-95FC-A729245B4B82}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8C823C0-2CE9-42D7-9E02-6B699F9C14DD}"/>
 </file>
--- a/docs/Mapping_casi_uso/morte/Morte_001.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -389,15 +395,24 @@
     <t>evento.datiEventoMorte.comparente2</t>
   </si>
   <si>
+    <t>{evento.datiEventoMorte.numeroComparenti,!=,2}</t>
+  </si>
+  <si>
     <t>Coniuge</t>
   </si>
   <si>
     <t>evento.coniuge</t>
   </si>
   <si>
+    <t>{evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)}</t>
+  </si>
+  <si>
     <t>Unito civilmente</t>
   </si>
   <si>
+    <t>{evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)}</t>
+  </si>
+  <si>
     <t>Interprete</t>
   </si>
   <si>
@@ -405,6 +420,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -508,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -520,6 +538,7 @@
     <col min="4" max="4" width="35.7109375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="46.74609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,145 +560,169 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -701,3085 +744,3550 @@
       <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_001.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_001.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/morte/Morte_001.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,40 +32,43 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Certificato necroscopico</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Certificato necroscopico</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -745,3549 +748,3549 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_001.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_001.xlsx
@@ -398,7 +398,7 @@
     <t>evento.datiEventoMorte.comparente2</t>
   </si>
   <si>
-    <t>{evento.datiEventoMorte.numeroComparenti,!=,2}</t>
+    <t>evento.datiEventoMorte.numeroComparenti,!=,2</t>
   </si>
   <si>
     <t>Coniuge</t>
@@ -407,13 +407,13 @@
     <t>evento.coniuge</t>
   </si>
   <si>
-    <t>{evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)}</t>
+    <t>evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)</t>
   </si>
   <si>
     <t>Unito civilmente</t>
   </si>
   <si>
-    <t>{evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)}</t>
+    <t>evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -425,7 +425,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -541,7 +541,7 @@
     <col min="4" max="4" width="35.7109375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="46.74609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="45.36328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/morte/Morte_001.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalità</t>
@@ -529,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1426,7 +1432,7 @@
         <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>63</v>
@@ -1518,7 +1524,7 @@
         <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>63</v>
@@ -1627,19 +1633,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1650,19 +1656,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1673,19 +1679,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1696,19 +1702,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1719,19 +1725,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1742,19 +1748,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1765,19 +1771,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1788,19 +1794,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1811,19 +1817,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1834,19 +1840,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1857,19 +1863,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1880,19 +1886,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1903,19 +1909,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1926,19 +1932,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1949,19 +1955,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1972,19 +1978,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1995,7 +2001,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>117</v>
@@ -2004,10 +2010,10 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2018,7 +2024,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>118</v>
@@ -2027,10 +2033,10 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2041,7 +2047,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>119</v>
@@ -2050,10 +2056,10 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2064,19 +2070,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2087,19 +2093,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2110,19 +2116,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2133,191 +2139,191 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C71" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>109</v>
@@ -2326,21 +2332,21 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>110</v>
@@ -2349,815 +2355,815 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="E92" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="E94" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3168,19 +3174,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3191,19 +3197,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3214,19 +3220,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3237,416 +3243,416 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136">
@@ -3654,22 +3660,22 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="137">
@@ -3677,22 +3683,22 @@
         <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="138">
@@ -3700,22 +3706,22 @@
         <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="139">
@@ -3723,22 +3729,22 @@
         <v>134</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="140">
@@ -3746,550 +3752,688 @@
         <v>134</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F159" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G159" s="2" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G160" s="2" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D163" s="2" t="s">
+      <c r="C168" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
+      <c r="C169" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_001.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="188">
   <si>
     <t>Sezione</t>
   </si>
@@ -477,6 +477,105 @@
   </si>
   <si>
     <t>numeroComparenti</t>
+  </si>
+  <si>
+    <t>Atto di nascita del deceduto</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMorte.attoNascitaDeceduto</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -535,17 +634,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.78125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.12890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="35.7109375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="42.6171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="45.36328125" customWidth="true" bestFit="true"/>
   </cols>
@@ -4437,6 +4536,351 @@
         <v>24</v>
       </c>
     </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/morte/Morte_001.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="189">
   <si>
     <t>Sezione</t>
   </si>
@@ -431,7 +431,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -646,7 +649,7 @@
     <col min="4" max="4" width="42.6171875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="45.36328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4380,7 +4383,7 @@
         <v>136</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>21</v>
@@ -4400,19 +4403,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4423,19 +4426,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>13</v>
@@ -4446,10 +4449,10 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>21</v>
@@ -4458,7 +4461,7 @@
         <v>22</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4469,10 +4472,10 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>21</v>
@@ -4481,7 +4484,7 @@
         <v>63</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4492,10 +4495,10 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>21</v>
@@ -4504,7 +4507,7 @@
         <v>63</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4515,19 +4518,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4538,154 +4541,154 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>23</v>
@@ -4694,44 +4697,44 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>26</v>
@@ -4740,93 +4743,93 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4837,19 +4840,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4860,19 +4863,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/morte/Morte_001.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="188">
   <si>
     <t>Sezione</t>
   </si>
@@ -432,9 +432,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4383,7 +4380,7 @@
         <v>136</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>21</v>
@@ -4403,19 +4400,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="C164" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D164" s="2" t="s">
+      <c r="E164" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4426,19 +4423,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>13</v>
@@ -4449,10 +4446,10 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>21</v>
@@ -4461,7 +4458,7 @@
         <v>22</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4472,10 +4469,10 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>21</v>
@@ -4484,7 +4481,7 @@
         <v>63</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4495,10 +4492,10 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>21</v>
@@ -4507,7 +4504,7 @@
         <v>63</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4518,19 +4515,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D169" s="2" t="s">
+      <c r="E169" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4541,154 +4538,154 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
+      <c r="E170" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>23</v>
@@ -4697,44 +4694,44 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>26</v>
@@ -4743,93 +4740,93 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="2" t="s">
+      <c r="E182" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4840,19 +4837,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4863,19 +4860,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/morte/Morte_001.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="189">
   <si>
     <t>Sezione</t>
   </si>
@@ -432,6 +432,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4380,7 +4383,7 @@
         <v>136</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>21</v>
@@ -4400,19 +4403,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4423,19 +4426,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>13</v>
@@ -4446,10 +4449,10 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>21</v>
@@ -4458,7 +4461,7 @@
         <v>22</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4469,10 +4472,10 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>21</v>
@@ -4481,7 +4484,7 @@
         <v>63</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4492,10 +4495,10 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>21</v>
@@ -4504,7 +4507,7 @@
         <v>63</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4515,19 +4518,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4538,154 +4541,154 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>23</v>
@@ -4694,44 +4697,44 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>26</v>
@@ -4740,93 +4743,93 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4837,19 +4840,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4860,19 +4863,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/morte/Morte_001.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="197">
   <si>
     <t>Sezione</t>
   </si>
@@ -327,6 +327,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Comparente 1</t>
@@ -637,7 +661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H184"/>
+  <dimension ref="A1:H188"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1758,19 +1782,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1781,19 +1805,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1804,19 +1828,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1851,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1874,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1897,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1896,19 +1920,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1919,19 +1943,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1942,19 +1966,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1965,19 +1989,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1988,19 +2012,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2011,19 +2035,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2034,19 +2058,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2057,19 +2081,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2080,19 +2104,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2103,19 +2127,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2126,19 +2150,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2149,19 +2173,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2172,19 +2196,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2195,19 +2219,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2218,19 +2242,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2241,19 +2265,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2264,19 +2288,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2287,2224 +2311,2224 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E165" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>152</v>
@@ -4518,22 +4542,22 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>24</v>
@@ -4541,122 +4565,122 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D171" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E171" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E174" s="2" t="s">
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>169</v>
@@ -4665,7 +4689,7 @@
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>170</v>
@@ -4674,12 +4698,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>171</v>
@@ -4688,136 +4712,136 @@
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>23</v>
+        <v>172</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>182</v>
@@ -4826,61 +4850,153 @@
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>24</v>
+        <v>168</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>24</v>
+        <v>168</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E184" s="2" t="s">
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_001.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="198">
   <si>
     <t>Sezione</t>
   </si>
@@ -221,6 +221,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -377,10 +383,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -661,7 +664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:H194"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1374,7 +1377,7 @@
         <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>63</v>
@@ -1466,7 +1469,7 @@
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>63</v>
@@ -1581,7 +1584,7 @@
         <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>63</v>
@@ -1673,7 +1676,7 @@
         <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>63</v>
@@ -1874,19 +1877,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1897,19 +1900,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1920,19 +1923,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1943,19 +1946,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1966,19 +1969,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1989,19 +1992,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2012,19 +2015,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2035,19 +2038,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2058,7 +2061,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>119</v>
@@ -2067,10 +2070,10 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2081,7 +2084,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>120</v>
@@ -2090,10 +2093,10 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2107,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2130,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2153,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2173,19 +2176,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2196,19 +2199,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2219,19 +2222,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2242,19 +2245,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2265,19 +2268,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2288,19 +2291,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2311,19 +2314,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2334,19 +2337,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2357,19 +2360,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2380,19 +2383,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2403,260 +2406,260 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>121</v>
@@ -2665,21 +2668,21 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>122</v>
@@ -2688,2315 +2691,2453 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>168</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>168</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>168</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>168</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>168</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>168</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E188" s="2" t="s">
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_001.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="200">
   <si>
     <t>Sezione</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -664,7 +670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H194"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1653,7 +1659,7 @@
         <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>63</v>
@@ -1676,7 +1682,7 @@
         <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>63</v>
@@ -1900,19 +1906,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1923,19 +1929,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1946,19 +1952,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1969,19 +1975,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1992,19 +1998,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2015,19 +2021,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2038,19 +2044,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2061,19 +2067,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2084,19 +2090,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2107,19 +2113,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2130,19 +2136,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2159,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2176,19 +2182,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2205,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2228,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2245,19 +2251,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2268,7 +2274,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>126</v>
@@ -2277,10 +2283,10 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2291,7 +2297,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>127</v>
@@ -2300,10 +2306,10 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2314,7 +2320,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>128</v>
@@ -2323,10 +2329,10 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2337,7 +2343,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>129</v>
@@ -2346,10 +2352,10 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2360,7 +2366,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>130</v>
@@ -2369,10 +2375,10 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2383,19 +2389,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2406,19 +2412,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2429,19 +2435,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2452,214 +2458,214 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>121</v>
@@ -2668,21 +2674,21 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>122</v>
@@ -2691,884 +2697,884 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3579,19 +3585,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3602,19 +3608,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3625,19 +3631,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3648,214 +3654,214 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E130" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E133" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E135" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E136" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>123</v>
@@ -3864,21 +3870,21 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>124</v>
@@ -3887,223 +3893,223 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E143" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E144" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E145" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E147" s="2" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150">
@@ -4111,22 +4117,22 @@
         <v>145</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="151">
@@ -4134,22 +4140,22 @@
         <v>145</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="152">
@@ -4157,22 +4163,22 @@
         <v>145</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="153">
@@ -4180,22 +4186,22 @@
         <v>145</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="154">
@@ -4203,941 +4209,1079 @@
         <v>145</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F173" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G173" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="E185" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="2" t="s">
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E194" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="2" t="s">
+      <c r="B200" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_001.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="202">
   <si>
     <t>Sezione</t>
   </si>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -670,7 +676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2254,7 +2260,7 @@
         <v>117</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -2263,7 +2269,7 @@
         <v>118</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2277,7 +2283,7 @@
         <v>117</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -2286,7 +2292,7 @@
         <v>118</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2300,7 +2306,7 @@
         <v>117</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -2309,7 +2315,7 @@
         <v>118</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2323,7 +2329,7 @@
         <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -2332,7 +2338,7 @@
         <v>118</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2346,7 +2352,7 @@
         <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -2355,7 +2361,7 @@
         <v>118</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2369,7 +2375,7 @@
         <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -2378,7 +2384,7 @@
         <v>118</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2392,7 +2398,7 @@
         <v>117</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -2401,7 +2407,7 @@
         <v>118</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2415,7 +2421,7 @@
         <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2424,7 +2430,7 @@
         <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2438,16 +2444,16 @@
         <v>117</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2504,352 +2510,352 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>126</v>
@@ -2858,44 +2864,44 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>128</v>
@@ -2904,21 +2910,21 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>129</v>
@@ -2927,21 +2933,21 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>130</v>
@@ -2950,21 +2956,21 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>131</v>
@@ -2973,21 +2979,21 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>132</v>
@@ -2996,677 +3002,677 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E130" s="2" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3677,19 +3683,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3700,19 +3706,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3723,508 +3729,508 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E133" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E135" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E136" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E143" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E144" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E145" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E147" s="2" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E151" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E152" s="2" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E153" s="2" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E154" s="2" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155">
@@ -4232,22 +4238,22 @@
         <v>147</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="156">
@@ -4255,22 +4261,22 @@
         <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="157">
@@ -4278,22 +4284,22 @@
         <v>147</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="158">
@@ -4301,637 +4307,637 @@
         <v>147</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4942,346 +4948,461 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="E190" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200" s="2" t="s">
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E200" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
+      <c r="B205" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_001.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="204">
   <si>
     <t>Sezione</t>
   </si>
@@ -588,6 +588,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -676,7 +682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H205"/>
+  <dimension ref="A1:H206"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5339,39 +5345,39 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>199</v>
@@ -5385,7 +5391,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>200</v>
@@ -5394,7 +5400,7 @@
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>201</v>
@@ -5403,6 +5409,29 @@
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_001.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_001.xlsx
@@ -3166,7 +3166,7 @@
         <v>65</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>145</v>
@@ -3764,7 +3764,7 @@
         <v>65</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>145</v>

--- a/docs/Mapping_casi_uso/morte/Morte_001.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_001.xlsx
@@ -4615,7 +4615,7 @@
         <v>89</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>150</v>
@@ -4638,7 +4638,7 @@
         <v>125</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>150</v>
@@ -4647,7 +4647,7 @@
         <v>92</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>152</v>

--- a/docs/Mapping_casi_uso/morte/Morte_001.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="208">
   <si>
     <t>Sezione</t>
   </si>
@@ -231,6 +231,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -682,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H206"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1441,7 +1453,7 @@
         <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>63</v>
@@ -1464,7 +1476,7 @@
         <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>63</v>
@@ -1510,7 +1522,7 @@
         <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>63</v>
@@ -1533,7 +1545,7 @@
         <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>63</v>
@@ -1625,7 +1637,7 @@
         <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>63</v>
@@ -1648,7 +1660,7 @@
         <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>63</v>
@@ -1671,7 +1683,7 @@
         <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>63</v>
@@ -1694,7 +1706,7 @@
         <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>63</v>
@@ -1941,19 +1953,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1964,19 +1976,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1987,19 +1999,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2010,19 +2022,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2033,19 +2045,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2056,19 +2068,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2079,19 +2091,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2102,19 +2114,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2125,19 +2137,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2148,19 +2160,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2171,19 +2183,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2194,19 +2206,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2217,19 +2229,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2240,19 +2252,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2263,19 +2275,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2286,19 +2298,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2309,19 +2321,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2332,7 +2344,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>129</v>
@@ -2341,10 +2353,10 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2355,7 +2367,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>130</v>
@@ -2364,10 +2376,10 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2378,19 +2390,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2401,7 +2413,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>132</v>
@@ -2410,10 +2422,10 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2424,7 +2436,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>133</v>
@@ -2433,10 +2445,10 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2447,7 +2459,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>134</v>
@@ -2456,10 +2468,10 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2470,19 +2482,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2493,19 +2505,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2516,19 +2528,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2539,306 +2551,306 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>125</v>
@@ -2847,21 +2859,21 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>126</v>
@@ -2870,44 +2882,44 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>128</v>
@@ -2916,1439 +2928,1439 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E159" s="2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>152</v>
@@ -4356,19 +4368,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4379,19 +4391,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E161" s="2" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4402,19 +4414,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E162" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4425,19 +4437,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E163" s="2" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4448,19 +4460,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E164" s="2" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4471,19 +4483,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E165" s="2" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4494,19 +4506,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E166" s="2" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4517,22 +4529,22 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E167" s="2" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>152</v>
@@ -4540,19 +4552,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E168" s="2" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4563,875 +4575,1151 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="E185" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F185" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D185" s="2" t="s">
+      <c r="G185" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
+      <c r="E186" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E187" s="2" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="E188" s="2" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="E189" s="2" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="E190" s="2" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>171</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="C214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E206" s="2" t="s">
+      <c r="E216" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F206" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" s="2" t="s">
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_001.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_001.xlsx
@@ -443,30 +443,33 @@
     <t>flagComparente</t>
   </si>
   <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Comparente 2</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMorte.comparente2</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMorte.numeroComparenti,!=,2</t>
+  </si>
+  <si>
+    <t>Coniuge</t>
+  </si>
+  <si>
+    <t>evento.coniuge</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)</t>
+  </si>
+  <si>
     <t>flag firmatario</t>
   </si>
   <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Comparente 2</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMorte.comparente2</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMorte.numeroComparenti,!=,2</t>
-  </si>
-  <si>
-    <t>Coniuge</t>
-  </si>
-  <si>
-    <t>evento.coniuge</t>
-  </si>
-  <si>
-    <t>evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)</t>
-  </si>
-  <si>
     <t>Unito civilmente</t>
   </si>
   <si>
@@ -483,9 +486,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2626,7 +2626,7 @@
         <v>143</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>122</v>
@@ -3270,7 +3270,7 @@
         <v>143</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>146</v>
@@ -3911,7 +3911,7 @@
         <v>148</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -3931,7 +3931,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>62</v>
@@ -3949,12 +3949,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>65</v>
@@ -3972,12 +3972,12 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>69</v>
@@ -3995,12 +3995,12 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>71</v>
@@ -4018,12 +4018,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>73</v>
@@ -4041,12 +4041,12 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>75</v>
@@ -4064,12 +4064,12 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>77</v>
@@ -4087,12 +4087,12 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>123</v>
@@ -4110,12 +4110,12 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>124</v>
@@ -4133,12 +4133,12 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>125</v>
@@ -4156,12 +4156,12 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>126</v>
@@ -4179,12 +4179,12 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>127</v>
@@ -4202,12 +4202,12 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>128</v>
@@ -4225,12 +4225,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>91</v>
@@ -4248,12 +4248,12 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>93</v>
@@ -4271,12 +4271,12 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>129</v>
@@ -4294,12 +4294,12 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>130</v>
@@ -4317,12 +4317,12 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>97</v>
@@ -4340,12 +4340,12 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>132</v>
@@ -4363,12 +4363,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>133</v>
@@ -4386,12 +4386,12 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>134</v>
@@ -4409,12 +4409,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>135</v>
@@ -4432,12 +4432,12 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>136</v>
@@ -4455,12 +4455,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>137</v>
@@ -4478,12 +4478,12 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>138</v>
@@ -4501,12 +4501,12 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>139</v>
@@ -4524,12 +4524,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>141</v>
@@ -4547,15 +4547,15 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4570,12 +4570,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>62</v>
@@ -4584,21 +4584,21 @@
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>65</v>
@@ -4607,7 +4607,7 @@
         <v>21</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>66</v>
@@ -4616,12 +4616,12 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>69</v>
@@ -4630,7 +4630,7 @@
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>70</v>
@@ -4639,12 +4639,12 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>71</v>
@@ -4653,7 +4653,7 @@
         <v>21</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>72</v>
@@ -4662,12 +4662,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>73</v>
@@ -4676,7 +4676,7 @@
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>74</v>
@@ -4685,12 +4685,12 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>75</v>
@@ -4699,21 +4699,21 @@
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>77</v>
@@ -4722,7 +4722,7 @@
         <v>21</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>78</v>
@@ -4731,12 +4731,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>123</v>
@@ -4745,7 +4745,7 @@
         <v>21</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>80</v>
@@ -4754,12 +4754,12 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>124</v>
@@ -4768,7 +4768,7 @@
         <v>21</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>82</v>
@@ -4777,12 +4777,12 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>125</v>
@@ -4791,7 +4791,7 @@
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>84</v>
@@ -4800,12 +4800,12 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>126</v>
@@ -4814,21 +4814,21 @@
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>127</v>
@@ -4837,7 +4837,7 @@
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>88</v>
@@ -4846,12 +4846,12 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>128</v>
@@ -4860,21 +4860,21 @@
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>91</v>
@@ -4883,21 +4883,21 @@
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>93</v>
@@ -4906,7 +4906,7 @@
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>94</v>
@@ -4915,12 +4915,12 @@
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>129</v>
@@ -4929,21 +4929,21 @@
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>130</v>
@@ -4952,21 +4952,21 @@
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>97</v>
@@ -4975,21 +4975,21 @@
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>132</v>
@@ -4998,7 +4998,7 @@
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>100</v>
@@ -5007,12 +5007,12 @@
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>133</v>
@@ -5021,21 +5021,21 @@
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>134</v>
@@ -5044,7 +5044,7 @@
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>104</v>
@@ -5053,12 +5053,12 @@
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>135</v>
@@ -5067,21 +5067,21 @@
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>136</v>
@@ -5090,7 +5090,7 @@
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>108</v>
@@ -5099,12 +5099,12 @@
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>137</v>
@@ -5113,21 +5113,21 @@
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>138</v>
@@ -5136,21 +5136,21 @@
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>139</v>
@@ -5159,7 +5159,7 @@
         <v>21</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>140</v>
@@ -5168,12 +5168,12 @@
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>141</v>
@@ -5182,7 +5182,7 @@
         <v>21</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>142</v>
@@ -5191,21 +5191,21 @@
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>144</v>
@@ -5214,7 +5214,7 @@
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="197">
